--- a/WebApplicationTesting/bin/com/ExcelTestResultFiles/UserRegistrationResultFile.xlsx
+++ b/WebApplicationTesting/bin/com/ExcelTestResultFiles/UserRegistrationResultFile.xlsx
@@ -84,7 +84,7 @@
     <t>abc13</t>
   </si>
   <si>
-    <t>User Registered Successfully -- PASS</t>
+    <t>User Registred Successfully-- PASS</t>
   </si>
 </sst>
 </file>
@@ -430,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -519,6 +519,12 @@
       <c r="M2" t="s">
         <v>22</v>
       </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="D4" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
